--- a/Case/使用记录.xlsx
+++ b/Case/使用记录.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repository_local\python\Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23519E79-5900-46CF-A825-636CF520F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DBBAC3-852F-4561-AC08-D66246BFAF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-73" yWindow="-73" windowWidth="19346" windowHeight="11426" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="屈光度" sheetId="1" r:id="rId1"/>
     <sheet name="眼轴长" sheetId="2" r:id="rId2"/>
     <sheet name="脉络膜厚度" sheetId="3" r:id="rId3"/>
-    <sheet name="结果" sheetId="4" r:id="rId4"/>
+    <sheet name="结果1" sheetId="4" r:id="rId4"/>
+    <sheet name="结果2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="281">
   <si>
     <t>基线数据</t>
   </si>
@@ -738,6 +739,470 @@
     <t>20.38</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>-0.1±1.47</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04±1.22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01±1.22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.03±1.69</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.02±0.9</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03±0.93</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>1.78</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>-0.98</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>-1.72</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>-1.09</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.96</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.1±1.47</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21±1.46</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15±1.46</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.28±1.77</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.66±1.69</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31±1.68</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.06±1.69</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.11±1.2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31±1.22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.87±75.57</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3±56.55</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.92±64.89</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.82±79.21</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.32±63.46</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.58±55.65</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.2±62.41</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.18±56.22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.57±76.18</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.05±78.88</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21.32±60.19</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.47±56.83</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.07±0.88</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03±1.12</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01±0.75</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.07±0.92</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08±1.12</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04±0.75</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17±1.13</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09±0.75</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16±0.75</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36±1.14</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.77</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>14.57</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>0.02</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.12</t>
+  </si>
+  <si>
+    <t>36.1</t>
+  </si>
+  <si>
+    <t>0.1±1.47*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.21±1.46*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15±1.46*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.11±1.2*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.66±1.69*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31±1.68*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.06±1.69*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.31±1.22*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.28±1.77*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.87±75.57*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3±56.55*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.92±64.89*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.82±79.21*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.58±55.65*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-6.32±63.46*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.57±76.18*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>33.18±56.22*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12.2±62.41*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.05±78.88*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.47±56.83*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21.32±60.19*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.07±0.88*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01±0.75*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03±1.12*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04±0.75*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.08±1.12*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09±0.75*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.17±1.13*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16±0.75*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.36±1.14*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.07±0.92*</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1030,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,13 +1661,16 @@
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,6 +1688,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749301</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECF223D-9563-4C89-8284-E4F00D5C4514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="795867" y="3716865"/>
+          <a:ext cx="4013201" cy="3009901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>706967</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130174</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7533CD29-8E51-4F8E-A664-EB0AC029364A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8758767" y="3623733"/>
+          <a:ext cx="3974040" cy="3179232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>206376</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC5D1E3-D2B4-46FB-BE6A-55AD940A2168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16522700" y="3598334"/>
+          <a:ext cx="4164543" cy="3331634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1483,15 +2088,15 @@
   <dimension ref="A1:AK218"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.29296875" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.26953125" style="20"/>
+    <col min="1" max="1" width="9.87890625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.3515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.29296875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="2" customFormat="1">
@@ -11277,16 +11882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ218"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.29296875" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="20"/>
-    <col min="3" max="6" width="11.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.26953125" style="20"/>
+    <col min="1" max="1" width="9.87890625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" style="20"/>
+    <col min="3" max="6" width="11.17578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.29296875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -21757,16 +22362,16 @@
       <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.29296875" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="20" customWidth="1"/>
-    <col min="2" max="3" width="9.26953125" style="20"/>
-    <col min="4" max="4" width="8.1796875" style="20" customWidth="1"/>
-    <col min="5" max="6" width="9.26953125" style="20"/>
-    <col min="7" max="7" width="10.90625" style="13"/>
-    <col min="8" max="9" width="9.26953125" style="20"/>
-    <col min="10" max="10" width="10.90625" style="13"/>
-    <col min="11" max="16384" width="9.26953125" style="20"/>
+    <col min="1" max="1" width="9.87890625" style="20" customWidth="1"/>
+    <col min="2" max="3" width="9.29296875" style="20"/>
+    <col min="4" max="4" width="8.17578125" style="20" customWidth="1"/>
+    <col min="5" max="6" width="9.29296875" style="20"/>
+    <col min="7" max="7" width="10.87890625" style="13"/>
+    <col min="8" max="9" width="9.29296875" style="20"/>
+    <col min="10" max="10" width="10.87890625" style="13"/>
+    <col min="11" max="16384" width="9.29296875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -32289,1125 +32894,1125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C692AD6-456C-46D6-9205-EAD0B516FEAA}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="55"/>
-    <col min="10" max="10" width="8.7265625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="12.6328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7265625" style="55"/>
-    <col min="21" max="21" width="9.26953125" style="55" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="11.54296875" style="55" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.7265625" style="55"/>
+    <col min="1" max="1" width="11.8203125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.52734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.3515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.703125" style="54"/>
+    <col min="10" max="10" width="8.703125" style="54" customWidth="1"/>
+    <col min="11" max="11" width="9.29296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.64453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.703125" style="54"/>
+    <col min="21" max="21" width="9.29296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.52734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11.52734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.703125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:28" ht="14.35">
+      <c r="A1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="K1" s="54" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="K1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="U1" s="54" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="U1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="55" t="s">
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.35">
+      <c r="A2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="U2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:28" ht="14.35">
+      <c r="A3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="R3" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="55" t="s">
+      <c r="W3" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="X3" s="55" t="s">
+      <c r="X3" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="Y3" s="55" t="s">
+      <c r="Y3" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="55" t="s">
+      <c r="Z3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="55" t="s">
+      <c r="AA3" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" s="55" t="s">
+      <c r="AB3" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:28" ht="14.35">
+      <c r="A4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="W4" s="55" t="s">
+      <c r="W4" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="X4" s="55" t="s">
+      <c r="X4" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" s="55" t="s">
+      <c r="Y4" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" s="55" t="s">
+      <c r="Z4" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AA4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AB4" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:28" ht="14.35">
+      <c r="A5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="O5" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="55" t="s">
+      <c r="V5" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="W5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="X5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="55" t="s">
+      <c r="Y5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="55" t="s">
+      <c r="Z5" s="54" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:28" ht="14.35">
+      <c r="A6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="55" t="s">
+      <c r="V6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="55" t="s">
+      <c r="W6" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X6" s="55" t="s">
+      <c r="X6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="55" t="s">
+      <c r="Y6" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" s="55" t="s">
+      <c r="Z6" s="54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:28" ht="14.35">
+      <c r="A8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="56" t="s">
+      <c r="M8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="O8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="56" t="s">
+      <c r="P8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="55" t="s">
+      <c r="U8" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="56" t="s">
+      <c r="V8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="56" t="s">
+      <c r="W8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X8" s="56" t="s">
+      <c r="X8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="56" t="s">
+      <c r="Y8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z8" s="56" t="s">
+      <c r="Z8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="56" t="s">
+      <c r="AA8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="56" t="s">
+      <c r="AB8" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:28" ht="14.35">
+      <c r="A9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="57" t="s">
+      <c r="U9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="55" t="s">
+      <c r="V9" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="W9" s="55" t="s">
+      <c r="W9" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="X9" s="55" t="s">
+      <c r="X9" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Y9" s="55" t="s">
+      <c r="Y9" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="Z9" s="55" t="s">
+      <c r="Z9" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="AA9" s="55" t="s">
+      <c r="AA9" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" s="55" t="s">
+      <c r="AB9" s="54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:28" ht="14.35">
+      <c r="A10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="55" t="s">
+      <c r="N10" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="O10" s="55" t="s">
+      <c r="O10" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="P10" s="55" t="s">
+      <c r="P10" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q10" s="55" t="s">
+      <c r="Q10" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="55" t="s">
+      <c r="R10" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="57" t="s">
+      <c r="U10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="55" t="s">
+      <c r="V10" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="W10" s="55" t="s">
+      <c r="W10" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="X10" s="55" t="s">
+      <c r="X10" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="Y10" s="55" t="s">
+      <c r="Y10" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="Z10" s="55" t="s">
+      <c r="Z10" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="AA10" s="55" t="s">
+      <c r="AA10" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="AB10" s="55" t="s">
+      <c r="AB10" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:28" ht="14.35">
+      <c r="A11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="55" t="s">
+      <c r="L11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="55" t="s">
+      <c r="M11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="55" t="s">
+      <c r="N11" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="55" t="s">
+      <c r="O11" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="55" t="s">
+      <c r="P11" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="55" t="s">
+      <c r="U11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="55" t="s">
+      <c r="V11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="W11" s="55" t="s">
+      <c r="W11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="X11" s="55" t="s">
+      <c r="X11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="Z11" s="55" t="s">
+      <c r="Z11" s="54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:28" ht="14.35">
+      <c r="A12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="M12" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="55" t="s">
+      <c r="N12" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="55" t="s">
+      <c r="O12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="55" t="s">
+      <c r="P12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="55" t="s">
+      <c r="V12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="W12" s="55" t="s">
+      <c r="W12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="55" t="s">
+      <c r="X12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="55" t="s">
+      <c r="Y12" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="55" t="s">
+      <c r="Z12" s="54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="55" t="s">
+    <row r="14" spans="1:28" ht="14.35">
+      <c r="A14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="56" t="s">
+      <c r="M14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="56" t="s">
+      <c r="N14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="P14" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="U14" s="55" t="s">
+      <c r="U14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="V14" s="56" t="s">
+      <c r="V14" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W14" s="56" t="s">
+      <c r="W14" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="X14" s="56" t="s">
+      <c r="X14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="56" t="s">
+      <c r="Y14" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z14" s="56" t="s">
+      <c r="Z14" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AA14" s="56" t="s">
+      <c r="AA14" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="AB14" s="56" t="s">
+      <c r="AB14" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:28" ht="14.35">
+      <c r="A15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="N15" s="55" t="s">
+      <c r="N15" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="O15" s="55" t="s">
+      <c r="O15" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="P15" s="55" t="s">
+      <c r="P15" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="Q15" s="55" t="s">
+      <c r="Q15" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="57" t="s">
+      <c r="U15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="55" t="s">
+      <c r="V15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="55" t="s">
+      <c r="W15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="X15" s="55" t="s">
+      <c r="X15" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="55" t="s">
+      <c r="Y15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="55" t="s">
+      <c r="Z15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AA15" s="55" t="s">
+      <c r="AA15" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="AB15" s="55" t="s">
+      <c r="AB15" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="57" t="s">
+    <row r="16" spans="1:28" ht="14.35">
+      <c r="A16" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="55" t="s">
+      <c r="M16" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="N16" s="55" t="s">
+      <c r="N16" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="Q16" s="55" t="s">
+      <c r="Q16" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="R16" s="55" t="s">
+      <c r="R16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="57" t="s">
+      <c r="U16" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="55" t="s">
+      <c r="V16" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="W16" s="55" t="s">
+      <c r="W16" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="X16" s="55" t="s">
+      <c r="X16" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="Y16" s="55" t="s">
+      <c r="Y16" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" s="55" t="s">
+      <c r="Z16" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="AA16" s="55" t="s">
+      <c r="AA16" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="AB16" s="55" t="s">
+      <c r="AB16" s="54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="57" t="s">
+    <row r="17" spans="1:28" ht="14.35">
+      <c r="A17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="55" t="s">
+      <c r="L17" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="55" t="s">
+      <c r="N17" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="O17" s="55" t="s">
+      <c r="O17" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="55" t="s">
+      <c r="P17" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q17" s="55" t="s">
+      <c r="Q17" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="R17" s="55" t="s">
+      <c r="R17" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="U17" s="57" t="s">
+      <c r="U17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="V17" s="55" t="s">
+      <c r="V17" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="W17" s="55" t="s">
+      <c r="W17" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="X17" s="55" t="s">
+      <c r="X17" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="Y17" s="55" t="s">
+      <c r="Y17" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="Z17" s="55" t="s">
+      <c r="Z17" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="AA17" s="55" t="s">
+      <c r="AA17" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="AB17" s="55" t="s">
+      <c r="AB17" s="54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="55" t="s">
+    <row r="18" spans="1:28" ht="14.35">
+      <c r="A18" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="55" t="s">
+      <c r="K18" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="55" t="s">
+      <c r="M18" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="N18" s="55" t="s">
+      <c r="N18" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="O18" s="55" t="s">
+      <c r="O18" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="U18" s="55" t="s">
+      <c r="U18" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="V18" s="55" t="s">
+      <c r="V18" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="W18" s="55" t="s">
+      <c r="W18" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="X18" s="55" t="s">
+      <c r="X18" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Y18" s="55" t="s">
+      <c r="Y18" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="Z18" s="55" t="s">
+      <c r="Z18" s="54" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:28" ht="14.35">
+      <c r="A19" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="L19" s="55" t="s">
+      <c r="L19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="N19" s="55" t="s">
+      <c r="N19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="55" t="s">
+      <c r="O19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="V19" s="55" t="s">
+      <c r="V19" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="W19" s="55" t="s">
+      <c r="W19" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="X19" s="55" t="s">
+      <c r="X19" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="Y19" s="55" t="s">
+      <c r="Y19" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="Z19" s="55" t="s">
+      <c r="Z19" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -33421,4 +34026,1141 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A8C571-BEEE-4495-B281-04BEFE5CC9D1}">
+  <dimension ref="A1:AB20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.8203125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="10.52734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.3515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.703125" style="54"/>
+    <col min="11" max="11" width="9.29296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.64453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.703125" style="54"/>
+    <col min="21" max="21" width="9.29296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.52734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11.52734375" style="54" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.703125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="14.35">
+      <c r="A1" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="K1" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="U1" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+    </row>
+    <row r="2" spans="1:28" ht="14.35">
+      <c r="A2" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="14.35">
+      <c r="A3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z3" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="14.35">
+      <c r="A4" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q4" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="W4" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="X4" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y4" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z4" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA4" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.35">
+      <c r="A5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="54">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="U5" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="X5" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z5" s="54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="14.35">
+      <c r="A6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="X6" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z6" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="14.35">
+      <c r="A8" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y8" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="14.35">
+      <c r="A9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="P9" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="R9" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="X9" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y9" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z9" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA9" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB9" s="54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="14.35">
+      <c r="A10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="P10" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q10" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="U10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="W10" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="X10" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y10" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z10" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA10" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" s="54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="14.35">
+      <c r="A11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="X11" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y11" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z11" s="54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="14.35">
+      <c r="A12" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="X12" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y12" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z12" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="57" customFormat="1" ht="14.35">
+      <c r="A15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA15" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" s="55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="57" customFormat="1" ht="14.35">
+      <c r="A16" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="N16" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="O16" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q16" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="R16" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="U16" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="X16" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y16" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z16" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA16" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB16" s="57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="57" customFormat="1" ht="14.35">
+      <c r="A17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="R17" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="W17" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="X17" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y17" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z17" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA17" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB17" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="57" customFormat="1" ht="14.35">
+      <c r="A18" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q18" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="R18" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="U18" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="W18" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="X18" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y18" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z18" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA18" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB18" s="57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="57" customFormat="1" ht="14.35">
+      <c r="A19" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="N19" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="O19" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="U19" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="V19" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="W19" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="X19" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y19" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z19" s="57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="57" customFormat="1" ht="14.35">
+      <c r="A20" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="O20" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="V20" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="X20" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y20" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z20" s="57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="U1:Z1"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>